--- a/docs/代碼管制表.xlsx
+++ b/docs/代碼管制表.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,9 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -56,13 +59,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I755"/>
+  <dimension ref="A1:J828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -495,6 +501,11 @@
           <t>備註</t>
         </is>
       </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>開發難度等級/工時估算</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -32915,6 +32926,3437 @@
       <c r="I755" s="2" t="inlineStr">
         <is>
           <t>創建人: Daniel Chung; (Git歷史)</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>TOOL-001</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>基礎類</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>tools/base.py</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>工具基類，定義所有工具的統一接口和基礎功能</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>TOOL-002</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>註冊表</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>tools/registry.py</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>工具註冊表，管理工具的註冊、查找和調用</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>TOOL-003</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>錯誤定義</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>tools/utils/errors.py</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>工具相關錯誤定義</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>TOOL-004</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>驗證器</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>tools/utils/validator.py</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>參數驗證工具</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>TOOL-005</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>緩存工具</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>tools/utils/cache.py</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>緩存工具，用於外部API調用的緩存機制</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>TOOL-006</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>utils模組初始化</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>tools/utils/__init__.py</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>工具工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>TOOL-007</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>日期時間工具</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>tools/time/datetime_tool.py</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>日期時間工具，獲取當前日期時間，支持時區轉換和配置管理</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>高 (6.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>TOOL-008</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>格式化工具</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>tools/time/formatter.py</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>日期格式化工具，支持多種格式和語言環境</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>TOOL-009</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>計算工具</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>tools/time/calculator.py</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>日期計算工具，日期差值計算、加減運算、工作日計算</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>TOOL-010</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>time模組初始化</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>tools/time/__init__.py</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>時間工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>TOOL-011</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>天氣工具</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>tools/weather/weather_tool.py</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>天氣查詢工具，根據地理位置獲取當前天氣信息</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>TOOL-012</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>基礎類</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>tools/weather/providers/base.py</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>天氣提供商基類</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>TOOL-013</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>openweathermap</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>tools/weather/providers/openweathermap.py</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>OpenWeatherMap天氣API提供商實現</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J768" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>TOOL-014</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>providers模組初始化</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>tools/weather/providers/__init__.py</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>天氣提供商模組初始化</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>TOOL-015</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>weather模組初始化</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>tools/weather/__init__.py</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>天氣工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>TOOL-016</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>IP定位工具</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>tools/location/ip_location.py</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>IP地址定位工具，根據IP地址獲取地理位置信息</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J771" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>TOOL-017</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>地理編碼工具</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>tools/location/geocoding.py</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>地理編碼工具，地址與經緯度之間的轉換</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>TOOL-018</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>距離計算工具</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>tools/location/distance.py</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>距離計算工具，計算兩個地理位置之間的距離</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>TOOL-019</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>location模組初始化</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>tools/location/__init__.py</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>地理位置工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>TOOL-020</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>時區查詢工具</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>tools/location/timezone.py</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>時區查詢工具，根據地理位置獲取時區信息</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>TOOL-021</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>天氣預報工具</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>tools/weather/forecast_tool.py</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>天氣預報工具，獲取未來幾天的天氣預報</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>TOOL-022</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>conversion模組初始化</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>tools/conversion/__init__.py</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>單位轉換工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>TOOL-023</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>長度單位轉換</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>tools/conversion/length.py</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>長度單位轉換工具</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>TOOL-024</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>重量單位轉換</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>tools/conversion/weight.py</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>重量單位轉換工具</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>TOOL-025</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>溫度單位轉換</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>tools/conversion/temperature.py</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>溫度單位轉換工具</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>TOOL-026</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>貨幣轉換</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>tools/conversion/currency.py</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>貨幣轉換工具，支持實時匯率API</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>TOOL-027</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>體積單位轉換</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>tools/conversion/volume.py</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>體積單位轉換工具</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>TOOL-028</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>面積單位轉換</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>tools/conversion/area.py</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>面積單位轉換工具</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>TOOL-029</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>calculator模組初始化</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>tools/calculator/__init__.py</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>計算工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>TOOL-030</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>數學計算工具</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>tools/calculator/math_calculator.py</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>數學計算工具，支持基本運算和科學計算</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>TOOL-031</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>統計計算工具</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>tools/calculator/statistics.py</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>統計計算工具，平均值、中位數、標準差等統計功能</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>TOOL-032</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>text模組初始化</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>tools/text/__init__.py</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>文本處理工具模組初始化</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>TOOL-033</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>格式化工具</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>tools/text/formatter.py</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>文本格式化工具，大小寫轉換、首字母大寫等</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>TOOL-034</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>文本清理工具</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>tools/text/cleaner.py</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>文本清理工具，去除空白、特殊字符等</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>TOOL-035</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>文本轉換工具</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>tools/text/converter.py</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>文本轉換工具，Markdown、HTML、純文本互轉</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>TOOL-036</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>文本摘要工具</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>tools/text/summarizer.py</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>文本摘要工具，提取關鍵信息</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>TOOL-037</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>tools模組初始化</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>tools/__init__.py</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>工具組模組初始化，註冊所有工具</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>低 (1.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>工具組-腳本</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>TOOL-SCRIPT-001</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>init tools datetime config</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>scripts/init_tools_datetime_config.py</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>工具日期時間配置初始化腳本</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>低 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>工具組</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>TOOL-038</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>智能時間服務</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>tools/time/smart_time_service.py</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>智能時間服務，提供高精度時間和緩存機制</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>高 (5.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-001</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>tools模組初始化</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>tests/tools/__init__.py</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>測試模組初始化</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>低 (0.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-002</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>conftest</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>tests/tools/conftest.py</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>測試配置文件</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>低 (1.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-003</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>test base</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>tests/tools/test_base.py</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>工具基類單元測試</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-004</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>test registry</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>tests/tools/test_registry.py</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>工具註冊表單元測試</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-005</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>test time datetime</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>tests/tools/test_time_datetime.py</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>日期時間工具單元測試</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-006</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>test time formatter</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>tests/tools/test_time_formatter.py</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>日期格式化工具單元測試</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-007</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>test time calculator</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>tests/tools/test_time_calculator.py</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>日期計算工具單元測試</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-008</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>test time smart time service</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>tests/tools/test_time_smart_time_service.py</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>智能時間服務單元測試</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-009</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>test weather</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>tests/tools/test_weather.py</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>天氣工具單元測試</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-010</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>test weather forecast</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>tests/tools/test_weather_forecast.py</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>天氣預報工具單元測試</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J804" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-011</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>test location ip</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>tests/tools/test_location_ip.py</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>IP定位工具單元測試</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-012</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>test location geocoding</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>tests/tools/test_location_geocoding.py</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>地理編碼工具單元測試</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-013</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>test location distance</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>tests/tools/test_location_distance.py</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>距離計算工具單元測試</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-014</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>test location timezone</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>tests/tools/test_location_timezone.py</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>時區查詢工具單元測試</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-015</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>test conversion length</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_length.py</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>長度單位轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-016</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>test conversion weight</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_weight.py</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>重量單位轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-017</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>test conversion currency</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_currency.py</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>貨幣轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-018</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>test conversion temperature</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_temperature.py</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>溫度單位轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-019</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>test conversion volume</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_volume.py</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>體積單位轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-020</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>test conversion area</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>tests/tools/test_conversion_area.py</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>面積單位轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-021</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>test calculator math</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>tests/tools/test_calculator_math.py</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>數學計算工具單元測試</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-022</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>test calculator statistics</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>tests/tools/test_calculator_statistics.py</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>統計計算工具單元測試</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-023</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>test text formatter</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>tests/tools/test_text_formatter.py</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>文本格式化工具單元測試</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-024</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>test text cleaner</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>tests/tools/test_text_cleaner.py</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>文本清理工具單元測試</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-025</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>test text converter</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>tests/tools/test_text_converter.py</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>文本轉換工具單元測試</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-026</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>test text summarizer</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>tests/tools/test_text_summarizer.py</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>文本摘要工具單元測試</t>
+        </is>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-027</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>test utils cache</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>tests/tools/test_utils_cache.py</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>緩存工具單元測試</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-028</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>test utils validator</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>tests/tools/test_utils_validator.py</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>驗證器單元測試</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>中 (2.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-029</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>test utils errors</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>tests/tools/test_utils_errors.py</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>錯誤定義單元測試</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>低 (1.5小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-030</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>test integration registry</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>tests/tools/test_integration_registry.py</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>工具註冊表集成測試</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-031</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>test integration config</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>tests/tools/test_integration_config.py</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>配置服務集成測試</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>工具組-測試</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>TOOL-TEST-032</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>test integration apis</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>tests/tools/test_integration_apis.py</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>外部API集成測試</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>中 (3.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>工具組-文檔</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>TOOL-DOC-001</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>工具API文档</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具API文档.md</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>工具API完整文檔，包含所有工具的API說明</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>工具組-文檔</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>TOOL-DOC-002</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>工具使用指南</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具使用指南.md</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>工具使用指南，包含快速開始、常見場景、最佳實踐</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>docs/系统设计文档/tools/工具開發計劃管控表.md</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>中 (4.0小時)</t>
         </is>
       </c>
     </row>
